--- a/logs/RitchieMichael_TimeEstimation.xlsx
+++ b/logs/RitchieMichael_TimeEstimation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RomaRitchie/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RomaRitchie/Ritchie_Michael_2_Portfolio/logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12440" yWindow="460" windowWidth="16360" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="6160" yWindow="460" windowWidth="22640" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Michael Ritchie</t>
   </si>
@@ -47,9 +47,6 @@
     <t>WK 1: GoToTraining (GTT)</t>
   </si>
   <si>
-    <t>Acitivity</t>
-  </si>
-  <si>
     <t>Week 1 - Discovery</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>What is a Portfolio?</t>
   </si>
   <si>
-    <t>How Do I Create an ePortfolio?</t>
-  </si>
-  <si>
     <t>WK 1: Call to Action - Success!</t>
   </si>
   <si>
@@ -102,13 +96,61 @@
   </si>
   <si>
     <t>Difference (Minutes)</t>
+  </si>
+  <si>
+    <t>WK 2: The Week Ahead</t>
+  </si>
+  <si>
+    <t>WK 2: GoToTraining (GTT)</t>
+  </si>
+  <si>
+    <t>WK 2: Call to Action - Failure to Success!</t>
+  </si>
+  <si>
+    <t>Mission Statement</t>
+  </si>
+  <si>
+    <t>Project Management Methodologies</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>How Do I Create an portfolio?</t>
+  </si>
+  <si>
+    <t>The Agile Development Methodology</t>
+  </si>
+  <si>
+    <t>Waterfall Development Methodoloy</t>
+  </si>
+  <si>
+    <t>Which Methodology Should I Pick: Agile vs Waterfall</t>
+  </si>
+  <si>
+    <t>The Project Plan</t>
+  </si>
+  <si>
+    <t>WK 2: Research</t>
+  </si>
+  <si>
+    <t>WK 2: Development</t>
+  </si>
+  <si>
+    <t>Self Evaluation: SWOT</t>
+  </si>
+  <si>
+    <t>WK 2: Project &amp; Portfolio</t>
+  </si>
+  <si>
+    <t>The Burn-Up List</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,6 +180,12 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -159,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -216,42 +264,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -277,6 +294,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -286,80 +354,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,29 +640,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FN31"/>
+  <dimension ref="A1:FN45"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.1640625" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="16.1640625" style="30"/>
+    <col min="1" max="1" width="29.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="51.1640625" style="4" customWidth="1"/>
+    <col min="3" max="5" width="16.1640625" style="16"/>
     <col min="6" max="170" width="16.1640625" style="6"/>
     <col min="171" max="16384" width="16.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:170" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -828,13 +830,13 @@
       <c r="FN1" s="7"/>
     </row>
     <row r="2" spans="1:170" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -1002,13 +1004,13 @@
       <c r="FN2" s="7"/>
     </row>
     <row r="3" spans="1:170" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -1176,11 +1178,11 @@
       <c r="FN3" s="7"/>
     </row>
     <row r="4" spans="1:170" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1347,441 +1349,441 @@
       <c r="FM4" s="5"/>
       <c r="FN4" s="5"/>
     </row>
-    <row r="5" spans="1:170" s="34" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32" t="s">
+    <row r="5" spans="1:170" s="20" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="19"/>
+      <c r="AT5" s="19"/>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="19"/>
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="19"/>
+      <c r="AZ5" s="19"/>
+      <c r="BA5" s="19"/>
+      <c r="BB5" s="19"/>
+      <c r="BC5" s="19"/>
+      <c r="BD5" s="19"/>
+      <c r="BE5" s="19"/>
+      <c r="BF5" s="19"/>
+      <c r="BG5" s="19"/>
+      <c r="BH5" s="19"/>
+      <c r="BI5" s="19"/>
+      <c r="BJ5" s="19"/>
+      <c r="BK5" s="19"/>
+      <c r="BL5" s="19"/>
+      <c r="BM5" s="19"/>
+      <c r="BN5" s="19"/>
+      <c r="BO5" s="19"/>
+      <c r="BP5" s="19"/>
+      <c r="BQ5" s="19"/>
+      <c r="BR5" s="19"/>
+      <c r="BS5" s="19"/>
+      <c r="BT5" s="19"/>
+      <c r="BU5" s="19"/>
+      <c r="BV5" s="19"/>
+      <c r="BW5" s="19"/>
+      <c r="BX5" s="19"/>
+      <c r="BY5" s="19"/>
+      <c r="BZ5" s="19"/>
+      <c r="CA5" s="19"/>
+      <c r="CB5" s="19"/>
+      <c r="CC5" s="19"/>
+      <c r="CD5" s="19"/>
+      <c r="CE5" s="19"/>
+      <c r="CF5" s="19"/>
+      <c r="CG5" s="19"/>
+      <c r="CH5" s="19"/>
+      <c r="CI5" s="19"/>
+      <c r="CJ5" s="19"/>
+      <c r="CK5" s="19"/>
+      <c r="CL5" s="19"/>
+      <c r="CM5" s="19"/>
+      <c r="CN5" s="19"/>
+      <c r="CO5" s="19"/>
+      <c r="CP5" s="19"/>
+      <c r="CQ5" s="19"/>
+      <c r="CR5" s="19"/>
+      <c r="CS5" s="19"/>
+      <c r="CT5" s="19"/>
+      <c r="CU5" s="19"/>
+      <c r="CV5" s="19"/>
+      <c r="CW5" s="19"/>
+      <c r="CX5" s="19"/>
+      <c r="CY5" s="19"/>
+      <c r="CZ5" s="19"/>
+      <c r="DA5" s="19"/>
+      <c r="DB5" s="19"/>
+      <c r="DC5" s="19"/>
+      <c r="DD5" s="19"/>
+      <c r="DE5" s="19"/>
+      <c r="DF5" s="19"/>
+      <c r="DG5" s="19"/>
+      <c r="DH5" s="19"/>
+      <c r="DI5" s="19"/>
+      <c r="DJ5" s="19"/>
+      <c r="DK5" s="19"/>
+      <c r="DL5" s="19"/>
+      <c r="DM5" s="19"/>
+      <c r="DN5" s="19"/>
+      <c r="DO5" s="19"/>
+      <c r="DP5" s="19"/>
+      <c r="DQ5" s="19"/>
+      <c r="DR5" s="19"/>
+      <c r="DS5" s="19"/>
+      <c r="DT5" s="19"/>
+      <c r="DU5" s="19"/>
+      <c r="DV5" s="19"/>
+      <c r="DW5" s="19"/>
+      <c r="DX5" s="19"/>
+      <c r="DY5" s="19"/>
+      <c r="DZ5" s="19"/>
+      <c r="EA5" s="19"/>
+      <c r="EB5" s="19"/>
+      <c r="EC5" s="19"/>
+      <c r="ED5" s="19"/>
+      <c r="EE5" s="19"/>
+      <c r="EF5" s="19"/>
+      <c r="EG5" s="19"/>
+      <c r="EH5" s="19"/>
+      <c r="EI5" s="19"/>
+      <c r="EJ5" s="19"/>
+      <c r="EK5" s="19"/>
+      <c r="EL5" s="19"/>
+      <c r="EM5" s="19"/>
+      <c r="EN5" s="19"/>
+      <c r="EO5" s="19"/>
+      <c r="EP5" s="19"/>
+      <c r="EQ5" s="19"/>
+      <c r="ER5" s="19"/>
+      <c r="ES5" s="19"/>
+      <c r="ET5" s="19"/>
+      <c r="EU5" s="19"/>
+      <c r="EV5" s="19"/>
+      <c r="EW5" s="19"/>
+      <c r="EX5" s="19"/>
+      <c r="EY5" s="19"/>
+      <c r="EZ5" s="19"/>
+      <c r="FA5" s="19"/>
+      <c r="FB5" s="19"/>
+      <c r="FC5" s="19"/>
+      <c r="FD5" s="19"/>
+      <c r="FE5" s="19"/>
+      <c r="FF5" s="19"/>
+      <c r="FG5" s="19"/>
+      <c r="FH5" s="19"/>
+      <c r="FI5" s="19"/>
+      <c r="FJ5" s="19"/>
+      <c r="FK5" s="19"/>
+      <c r="FL5" s="19"/>
+      <c r="FM5" s="19"/>
+      <c r="FN5" s="19"/>
+    </row>
+    <row r="6" spans="1:170" s="6" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33"/>
-      <c r="AQ5" s="33"/>
-      <c r="AR5" s="33"/>
-      <c r="AS5" s="33"/>
-      <c r="AT5" s="33"/>
-      <c r="AU5" s="33"/>
-      <c r="AV5" s="33"/>
-      <c r="AW5" s="33"/>
-      <c r="AX5" s="33"/>
-      <c r="AY5" s="33"/>
-      <c r="AZ5" s="33"/>
-      <c r="BA5" s="33"/>
-      <c r="BB5" s="33"/>
-      <c r="BC5" s="33"/>
-      <c r="BD5" s="33"/>
-      <c r="BE5" s="33"/>
-      <c r="BF5" s="33"/>
-      <c r="BG5" s="33"/>
-      <c r="BH5" s="33"/>
-      <c r="BI5" s="33"/>
-      <c r="BJ5" s="33"/>
-      <c r="BK5" s="33"/>
-      <c r="BL5" s="33"/>
-      <c r="BM5" s="33"/>
-      <c r="BN5" s="33"/>
-      <c r="BO5" s="33"/>
-      <c r="BP5" s="33"/>
-      <c r="BQ5" s="33"/>
-      <c r="BR5" s="33"/>
-      <c r="BS5" s="33"/>
-      <c r="BT5" s="33"/>
-      <c r="BU5" s="33"/>
-      <c r="BV5" s="33"/>
-      <c r="BW5" s="33"/>
-      <c r="BX5" s="33"/>
-      <c r="BY5" s="33"/>
-      <c r="BZ5" s="33"/>
-      <c r="CA5" s="33"/>
-      <c r="CB5" s="33"/>
-      <c r="CC5" s="33"/>
-      <c r="CD5" s="33"/>
-      <c r="CE5" s="33"/>
-      <c r="CF5" s="33"/>
-      <c r="CG5" s="33"/>
-      <c r="CH5" s="33"/>
-      <c r="CI5" s="33"/>
-      <c r="CJ5" s="33"/>
-      <c r="CK5" s="33"/>
-      <c r="CL5" s="33"/>
-      <c r="CM5" s="33"/>
-      <c r="CN5" s="33"/>
-      <c r="CO5" s="33"/>
-      <c r="CP5" s="33"/>
-      <c r="CQ5" s="33"/>
-      <c r="CR5" s="33"/>
-      <c r="CS5" s="33"/>
-      <c r="CT5" s="33"/>
-      <c r="CU5" s="33"/>
-      <c r="CV5" s="33"/>
-      <c r="CW5" s="33"/>
-      <c r="CX5" s="33"/>
-      <c r="CY5" s="33"/>
-      <c r="CZ5" s="33"/>
-      <c r="DA5" s="33"/>
-      <c r="DB5" s="33"/>
-      <c r="DC5" s="33"/>
-      <c r="DD5" s="33"/>
-      <c r="DE5" s="33"/>
-      <c r="DF5" s="33"/>
-      <c r="DG5" s="33"/>
-      <c r="DH5" s="33"/>
-      <c r="DI5" s="33"/>
-      <c r="DJ5" s="33"/>
-      <c r="DK5" s="33"/>
-      <c r="DL5" s="33"/>
-      <c r="DM5" s="33"/>
-      <c r="DN5" s="33"/>
-      <c r="DO5" s="33"/>
-      <c r="DP5" s="33"/>
-      <c r="DQ5" s="33"/>
-      <c r="DR5" s="33"/>
-      <c r="DS5" s="33"/>
-      <c r="DT5" s="33"/>
-      <c r="DU5" s="33"/>
-      <c r="DV5" s="33"/>
-      <c r="DW5" s="33"/>
-      <c r="DX5" s="33"/>
-      <c r="DY5" s="33"/>
-      <c r="DZ5" s="33"/>
-      <c r="EA5" s="33"/>
-      <c r="EB5" s="33"/>
-      <c r="EC5" s="33"/>
-      <c r="ED5" s="33"/>
-      <c r="EE5" s="33"/>
-      <c r="EF5" s="33"/>
-      <c r="EG5" s="33"/>
-      <c r="EH5" s="33"/>
-      <c r="EI5" s="33"/>
-      <c r="EJ5" s="33"/>
-      <c r="EK5" s="33"/>
-      <c r="EL5" s="33"/>
-      <c r="EM5" s="33"/>
-      <c r="EN5" s="33"/>
-      <c r="EO5" s="33"/>
-      <c r="EP5" s="33"/>
-      <c r="EQ5" s="33"/>
-      <c r="ER5" s="33"/>
-      <c r="ES5" s="33"/>
-      <c r="ET5" s="33"/>
-      <c r="EU5" s="33"/>
-      <c r="EV5" s="33"/>
-      <c r="EW5" s="33"/>
-      <c r="EX5" s="33"/>
-      <c r="EY5" s="33"/>
-      <c r="EZ5" s="33"/>
-      <c r="FA5" s="33"/>
-      <c r="FB5" s="33"/>
-      <c r="FC5" s="33"/>
-      <c r="FD5" s="33"/>
-      <c r="FE5" s="33"/>
-      <c r="FF5" s="33"/>
-      <c r="FG5" s="33"/>
-      <c r="FH5" s="33"/>
-      <c r="FI5" s="33"/>
-      <c r="FJ5" s="33"/>
-      <c r="FK5" s="33"/>
-      <c r="FL5" s="33"/>
-      <c r="FM5" s="33"/>
-      <c r="FN5" s="33"/>
-    </row>
-    <row r="6" spans="1:170" s="6" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:170" s="6" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="24">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="12">
         <v>5</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="12">
         <v>7</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="13">
         <f>C7-D7</f>
         <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:170" s="6" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="12">
         <v>45</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="12">
         <v>55</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="13">
         <f t="shared" ref="E8:E21" si="0">C8-D8</f>
         <v>-10</v>
       </c>
     </row>
     <row r="9" spans="1:170" s="6" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="12">
         <v>3</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="12">
         <v>3</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:170" s="6" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="12">
         <v>1</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="12">
         <v>1</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:170" s="6" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="12">
         <v>60</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="12">
         <v>120</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="13">
         <f t="shared" si="0"/>
         <v>-60</v>
       </c>
     </row>
     <row r="12" spans="1:170" s="6" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="24">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="12">
         <v>45</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="12">
         <v>60</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="13">
         <f t="shared" si="0"/>
         <v>-15</v>
       </c>
     </row>
     <row r="13" spans="1:170" s="6" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="24">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="12">
         <v>50</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="12">
         <v>180</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="13">
         <f t="shared" si="0"/>
         <v>-130</v>
       </c>
     </row>
     <row r="14" spans="1:170" s="6" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="24">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="12">
         <v>5</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="12">
         <v>5</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:170" s="6" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="24">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="12">
         <v>20</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="12">
         <v>30</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="13">
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
     </row>
     <row r="16" spans="1:170" s="6" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="24">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="12">
         <v>50</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="12">
         <v>75</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="13">
         <f t="shared" si="0"/>
         <v>-25</v>
       </c>
     </row>
     <row r="17" spans="1:170" s="6" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="24">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="12">
         <v>5</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="12">
         <v>5</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="26">
+      <c r="A18" s="9"/>
+      <c r="B18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="14">
         <v>5</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="14">
         <v>5</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="26">
+      <c r="A19" s="9"/>
+      <c r="B19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="14">
         <v>45</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="14">
         <v>60</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="13">
         <f t="shared" si="0"/>
         <v>-15</v>
       </c>
     </row>
     <row r="20" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="26">
+      <c r="A20" s="9"/>
+      <c r="B20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="14">
         <v>75</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="14">
         <v>85</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="13">
         <f>C20-D20</f>
         <v>-10</v>
       </c>
     </row>
     <row r="21" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="26">
+      <c r="A21" s="9"/>
+      <c r="B21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="14">
         <v>45</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="14">
         <v>55</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="13">
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
     </row>
     <row r="22" spans="1:170" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -1949,575 +1951,814 @@
       <c r="FN22" s="5"/>
     </row>
     <row r="23" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="14">
+        <v>3</v>
+      </c>
+      <c r="D24" s="14">
+        <v>5</v>
+      </c>
+      <c r="E24" s="13">
+        <f>C24-D24</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="14">
+        <v>1</v>
+      </c>
+      <c r="D25" s="14">
+        <v>1</v>
+      </c>
+      <c r="E25" s="13">
+        <f t="shared" ref="E25:E38" si="1">C25-D25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="14">
+        <v>60</v>
+      </c>
+      <c r="D26" s="14">
+        <v>75</v>
+      </c>
+      <c r="E26" s="13">
+        <f t="shared" si="1"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="14">
+        <v>60</v>
+      </c>
+      <c r="D27" s="14">
+        <v>75</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" si="1"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="14">
+        <v>45</v>
+      </c>
+      <c r="D28" s="14">
+        <v>60</v>
+      </c>
+      <c r="E28" s="13">
+        <f t="shared" si="1"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="14">
+        <v>5</v>
+      </c>
+      <c r="D29" s="14">
+        <v>5</v>
+      </c>
+      <c r="E29" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="14">
+        <v>5</v>
+      </c>
+      <c r="D30" s="14">
+        <v>5</v>
+      </c>
+      <c r="E30" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="14">
+        <v>5</v>
+      </c>
+      <c r="D31" s="14">
+        <v>5</v>
+      </c>
+      <c r="E31" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="14">
+        <v>15</v>
+      </c>
+      <c r="D32" s="14">
+        <v>20</v>
+      </c>
+      <c r="E32" s="13">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="14">
+        <v>5</v>
+      </c>
+      <c r="D33" s="14">
+        <v>5</v>
+      </c>
+      <c r="E33" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="14">
+        <v>5</v>
+      </c>
+      <c r="D34" s="14">
+        <v>5</v>
+      </c>
+      <c r="E34" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="14">
+        <v>5</v>
+      </c>
+      <c r="D35" s="14">
+        <v>5</v>
+      </c>
+      <c r="E35" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="14">
+        <v>10</v>
+      </c>
+      <c r="D36" s="14">
+        <v>7</v>
+      </c>
+      <c r="E36" s="13">
+        <f>C36-D36</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="14">
+        <v>75</v>
+      </c>
+      <c r="D37" s="14">
+        <v>65</v>
+      </c>
+      <c r="E37" s="13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="14">
+        <v>45</v>
+      </c>
+      <c r="D38" s="14">
+        <v>50</v>
+      </c>
+      <c r="E38" s="13">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:170" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="29"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+      <c r="AM39" s="5"/>
+      <c r="AN39" s="5"/>
+      <c r="AO39" s="5"/>
+      <c r="AP39" s="5"/>
+      <c r="AQ39" s="5"/>
+      <c r="AR39" s="5"/>
+      <c r="AS39" s="5"/>
+      <c r="AT39" s="5"/>
+      <c r="AU39" s="5"/>
+      <c r="AV39" s="5"/>
+      <c r="AW39" s="5"/>
+      <c r="AX39" s="5"/>
+      <c r="AY39" s="5"/>
+      <c r="AZ39" s="5"/>
+      <c r="BA39" s="5"/>
+      <c r="BB39" s="5"/>
+      <c r="BC39" s="5"/>
+      <c r="BD39" s="5"/>
+      <c r="BE39" s="5"/>
+      <c r="BF39" s="5"/>
+      <c r="BG39" s="5"/>
+      <c r="BH39" s="5"/>
+      <c r="BI39" s="5"/>
+      <c r="BJ39" s="5"/>
+      <c r="BK39" s="5"/>
+      <c r="BL39" s="5"/>
+      <c r="BM39" s="5"/>
+      <c r="BN39" s="5"/>
+      <c r="BO39" s="5"/>
+      <c r="BP39" s="5"/>
+      <c r="BQ39" s="5"/>
+      <c r="BR39" s="5"/>
+      <c r="BS39" s="5"/>
+      <c r="BT39" s="5"/>
+      <c r="BU39" s="5"/>
+      <c r="BV39" s="5"/>
+      <c r="BW39" s="5"/>
+      <c r="BX39" s="5"/>
+      <c r="BY39" s="5"/>
+      <c r="BZ39" s="5"/>
+      <c r="CA39" s="5"/>
+      <c r="CB39" s="5"/>
+      <c r="CC39" s="5"/>
+      <c r="CD39" s="5"/>
+      <c r="CE39" s="5"/>
+      <c r="CF39" s="5"/>
+      <c r="CG39" s="5"/>
+      <c r="CH39" s="5"/>
+      <c r="CI39" s="5"/>
+      <c r="CJ39" s="5"/>
+      <c r="CK39" s="5"/>
+      <c r="CL39" s="5"/>
+      <c r="CM39" s="5"/>
+      <c r="CN39" s="5"/>
+      <c r="CO39" s="5"/>
+      <c r="CP39" s="5"/>
+      <c r="CQ39" s="5"/>
+      <c r="CR39" s="5"/>
+      <c r="CS39" s="5"/>
+      <c r="CT39" s="5"/>
+      <c r="CU39" s="5"/>
+      <c r="CV39" s="5"/>
+      <c r="CW39" s="5"/>
+      <c r="CX39" s="5"/>
+      <c r="CY39" s="5"/>
+      <c r="CZ39" s="5"/>
+      <c r="DA39" s="5"/>
+      <c r="DB39" s="5"/>
+      <c r="DC39" s="5"/>
+      <c r="DD39" s="5"/>
+      <c r="DE39" s="5"/>
+      <c r="DF39" s="5"/>
+      <c r="DG39" s="5"/>
+      <c r="DH39" s="5"/>
+      <c r="DI39" s="5"/>
+      <c r="DJ39" s="5"/>
+      <c r="DK39" s="5"/>
+      <c r="DL39" s="5"/>
+      <c r="DM39" s="5"/>
+      <c r="DN39" s="5"/>
+      <c r="DO39" s="5"/>
+      <c r="DP39" s="5"/>
+      <c r="DQ39" s="5"/>
+      <c r="DR39" s="5"/>
+      <c r="DS39" s="5"/>
+      <c r="DT39" s="5"/>
+      <c r="DU39" s="5"/>
+      <c r="DV39" s="5"/>
+      <c r="DW39" s="5"/>
+      <c r="DX39" s="5"/>
+      <c r="DY39" s="5"/>
+      <c r="DZ39" s="5"/>
+      <c r="EA39" s="5"/>
+      <c r="EB39" s="5"/>
+      <c r="EC39" s="5"/>
+      <c r="ED39" s="5"/>
+      <c r="EE39" s="5"/>
+      <c r="EF39" s="5"/>
+      <c r="EG39" s="5"/>
+      <c r="EH39" s="5"/>
+      <c r="EI39" s="5"/>
+      <c r="EJ39" s="5"/>
+      <c r="EK39" s="5"/>
+      <c r="EL39" s="5"/>
+      <c r="EM39" s="5"/>
+      <c r="EN39" s="5"/>
+      <c r="EO39" s="5"/>
+      <c r="EP39" s="5"/>
+      <c r="EQ39" s="5"/>
+      <c r="ER39" s="5"/>
+      <c r="ES39" s="5"/>
+      <c r="ET39" s="5"/>
+      <c r="EU39" s="5"/>
+      <c r="EV39" s="5"/>
+      <c r="EW39" s="5"/>
+      <c r="EX39" s="5"/>
+      <c r="EY39" s="5"/>
+      <c r="EZ39" s="5"/>
+      <c r="FA39" s="5"/>
+      <c r="FB39" s="5"/>
+      <c r="FC39" s="5"/>
+      <c r="FD39" s="5"/>
+      <c r="FE39" s="5"/>
+      <c r="FF39" s="5"/>
+      <c r="FG39" s="5"/>
+      <c r="FH39" s="5"/>
+      <c r="FI39" s="5"/>
+      <c r="FJ39" s="5"/>
+      <c r="FK39" s="5"/>
+      <c r="FL39" s="5"/>
+      <c r="FM39" s="5"/>
+      <c r="FN39" s="5"/>
+    </row>
+    <row r="40" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:170" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="29"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5"/>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
+      <c r="AM42" s="5"/>
+      <c r="AN42" s="5"/>
+      <c r="AO42" s="5"/>
+      <c r="AP42" s="5"/>
+      <c r="AQ42" s="5"/>
+      <c r="AR42" s="5"/>
+      <c r="AS42" s="5"/>
+      <c r="AT42" s="5"/>
+      <c r="AU42" s="5"/>
+      <c r="AV42" s="5"/>
+      <c r="AW42" s="5"/>
+      <c r="AX42" s="5"/>
+      <c r="AY42" s="5"/>
+      <c r="AZ42" s="5"/>
+      <c r="BA42" s="5"/>
+      <c r="BB42" s="5"/>
+      <c r="BC42" s="5"/>
+      <c r="BD42" s="5"/>
+      <c r="BE42" s="5"/>
+      <c r="BF42" s="5"/>
+      <c r="BG42" s="5"/>
+      <c r="BH42" s="5"/>
+      <c r="BI42" s="5"/>
+      <c r="BJ42" s="5"/>
+      <c r="BK42" s="5"/>
+      <c r="BL42" s="5"/>
+      <c r="BM42" s="5"/>
+      <c r="BN42" s="5"/>
+      <c r="BO42" s="5"/>
+      <c r="BP42" s="5"/>
+      <c r="BQ42" s="5"/>
+      <c r="BR42" s="5"/>
+      <c r="BS42" s="5"/>
+      <c r="BT42" s="5"/>
+      <c r="BU42" s="5"/>
+      <c r="BV42" s="5"/>
+      <c r="BW42" s="5"/>
+      <c r="BX42" s="5"/>
+      <c r="BY42" s="5"/>
+      <c r="BZ42" s="5"/>
+      <c r="CA42" s="5"/>
+      <c r="CB42" s="5"/>
+      <c r="CC42" s="5"/>
+      <c r="CD42" s="5"/>
+      <c r="CE42" s="5"/>
+      <c r="CF42" s="5"/>
+      <c r="CG42" s="5"/>
+      <c r="CH42" s="5"/>
+      <c r="CI42" s="5"/>
+      <c r="CJ42" s="5"/>
+      <c r="CK42" s="5"/>
+      <c r="CL42" s="5"/>
+      <c r="CM42" s="5"/>
+      <c r="CN42" s="5"/>
+      <c r="CO42" s="5"/>
+      <c r="CP42" s="5"/>
+      <c r="CQ42" s="5"/>
+      <c r="CR42" s="5"/>
+      <c r="CS42" s="5"/>
+      <c r="CT42" s="5"/>
+      <c r="CU42" s="5"/>
+      <c r="CV42" s="5"/>
+      <c r="CW42" s="5"/>
+      <c r="CX42" s="5"/>
+      <c r="CY42" s="5"/>
+      <c r="CZ42" s="5"/>
+      <c r="DA42" s="5"/>
+      <c r="DB42" s="5"/>
+      <c r="DC42" s="5"/>
+      <c r="DD42" s="5"/>
+      <c r="DE42" s="5"/>
+      <c r="DF42" s="5"/>
+      <c r="DG42" s="5"/>
+      <c r="DH42" s="5"/>
+      <c r="DI42" s="5"/>
+      <c r="DJ42" s="5"/>
+      <c r="DK42" s="5"/>
+      <c r="DL42" s="5"/>
+      <c r="DM42" s="5"/>
+      <c r="DN42" s="5"/>
+      <c r="DO42" s="5"/>
+      <c r="DP42" s="5"/>
+      <c r="DQ42" s="5"/>
+      <c r="DR42" s="5"/>
+      <c r="DS42" s="5"/>
+      <c r="DT42" s="5"/>
+      <c r="DU42" s="5"/>
+      <c r="DV42" s="5"/>
+      <c r="DW42" s="5"/>
+      <c r="DX42" s="5"/>
+      <c r="DY42" s="5"/>
+      <c r="DZ42" s="5"/>
+      <c r="EA42" s="5"/>
+      <c r="EB42" s="5"/>
+      <c r="EC42" s="5"/>
+      <c r="ED42" s="5"/>
+      <c r="EE42" s="5"/>
+      <c r="EF42" s="5"/>
+      <c r="EG42" s="5"/>
+      <c r="EH42" s="5"/>
+      <c r="EI42" s="5"/>
+      <c r="EJ42" s="5"/>
+      <c r="EK42" s="5"/>
+      <c r="EL42" s="5"/>
+      <c r="EM42" s="5"/>
+      <c r="EN42" s="5"/>
+      <c r="EO42" s="5"/>
+      <c r="EP42" s="5"/>
+      <c r="EQ42" s="5"/>
+      <c r="ER42" s="5"/>
+      <c r="ES42" s="5"/>
+      <c r="ET42" s="5"/>
+      <c r="EU42" s="5"/>
+      <c r="EV42" s="5"/>
+      <c r="EW42" s="5"/>
+      <c r="EX42" s="5"/>
+      <c r="EY42" s="5"/>
+      <c r="EZ42" s="5"/>
+      <c r="FA42" s="5"/>
+      <c r="FB42" s="5"/>
+      <c r="FC42" s="5"/>
+      <c r="FD42" s="5"/>
+      <c r="FE42" s="5"/>
+      <c r="FF42" s="5"/>
+      <c r="FG42" s="5"/>
+      <c r="FH42" s="5"/>
+      <c r="FI42" s="5"/>
+      <c r="FJ42" s="5"/>
+      <c r="FK42" s="5"/>
+      <c r="FL42" s="5"/>
+      <c r="FM42" s="5"/>
+      <c r="FN42" s="5"/>
+    </row>
+    <row r="43" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-    </row>
-    <row r="24" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-    </row>
-    <row r="25" spans="1:170" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="5"/>
-      <c r="AN25" s="5"/>
-      <c r="AO25" s="5"/>
-      <c r="AP25" s="5"/>
-      <c r="AQ25" s="5"/>
-      <c r="AR25" s="5"/>
-      <c r="AS25" s="5"/>
-      <c r="AT25" s="5"/>
-      <c r="AU25" s="5"/>
-      <c r="AV25" s="5"/>
-      <c r="AW25" s="5"/>
-      <c r="AX25" s="5"/>
-      <c r="AY25" s="5"/>
-      <c r="AZ25" s="5"/>
-      <c r="BA25" s="5"/>
-      <c r="BB25" s="5"/>
-      <c r="BC25" s="5"/>
-      <c r="BD25" s="5"/>
-      <c r="BE25" s="5"/>
-      <c r="BF25" s="5"/>
-      <c r="BG25" s="5"/>
-      <c r="BH25" s="5"/>
-      <c r="BI25" s="5"/>
-      <c r="BJ25" s="5"/>
-      <c r="BK25" s="5"/>
-      <c r="BL25" s="5"/>
-      <c r="BM25" s="5"/>
-      <c r="BN25" s="5"/>
-      <c r="BO25" s="5"/>
-      <c r="BP25" s="5"/>
-      <c r="BQ25" s="5"/>
-      <c r="BR25" s="5"/>
-      <c r="BS25" s="5"/>
-      <c r="BT25" s="5"/>
-      <c r="BU25" s="5"/>
-      <c r="BV25" s="5"/>
-      <c r="BW25" s="5"/>
-      <c r="BX25" s="5"/>
-      <c r="BY25" s="5"/>
-      <c r="BZ25" s="5"/>
-      <c r="CA25" s="5"/>
-      <c r="CB25" s="5"/>
-      <c r="CC25" s="5"/>
-      <c r="CD25" s="5"/>
-      <c r="CE25" s="5"/>
-      <c r="CF25" s="5"/>
-      <c r="CG25" s="5"/>
-      <c r="CH25" s="5"/>
-      <c r="CI25" s="5"/>
-      <c r="CJ25" s="5"/>
-      <c r="CK25" s="5"/>
-      <c r="CL25" s="5"/>
-      <c r="CM25" s="5"/>
-      <c r="CN25" s="5"/>
-      <c r="CO25" s="5"/>
-      <c r="CP25" s="5"/>
-      <c r="CQ25" s="5"/>
-      <c r="CR25" s="5"/>
-      <c r="CS25" s="5"/>
-      <c r="CT25" s="5"/>
-      <c r="CU25" s="5"/>
-      <c r="CV25" s="5"/>
-      <c r="CW25" s="5"/>
-      <c r="CX25" s="5"/>
-      <c r="CY25" s="5"/>
-      <c r="CZ25" s="5"/>
-      <c r="DA25" s="5"/>
-      <c r="DB25" s="5"/>
-      <c r="DC25" s="5"/>
-      <c r="DD25" s="5"/>
-      <c r="DE25" s="5"/>
-      <c r="DF25" s="5"/>
-      <c r="DG25" s="5"/>
-      <c r="DH25" s="5"/>
-      <c r="DI25" s="5"/>
-      <c r="DJ25" s="5"/>
-      <c r="DK25" s="5"/>
-      <c r="DL25" s="5"/>
-      <c r="DM25" s="5"/>
-      <c r="DN25" s="5"/>
-      <c r="DO25" s="5"/>
-      <c r="DP25" s="5"/>
-      <c r="DQ25" s="5"/>
-      <c r="DR25" s="5"/>
-      <c r="DS25" s="5"/>
-      <c r="DT25" s="5"/>
-      <c r="DU25" s="5"/>
-      <c r="DV25" s="5"/>
-      <c r="DW25" s="5"/>
-      <c r="DX25" s="5"/>
-      <c r="DY25" s="5"/>
-      <c r="DZ25" s="5"/>
-      <c r="EA25" s="5"/>
-      <c r="EB25" s="5"/>
-      <c r="EC25" s="5"/>
-      <c r="ED25" s="5"/>
-      <c r="EE25" s="5"/>
-      <c r="EF25" s="5"/>
-      <c r="EG25" s="5"/>
-      <c r="EH25" s="5"/>
-      <c r="EI25" s="5"/>
-      <c r="EJ25" s="5"/>
-      <c r="EK25" s="5"/>
-      <c r="EL25" s="5"/>
-      <c r="EM25" s="5"/>
-      <c r="EN25" s="5"/>
-      <c r="EO25" s="5"/>
-      <c r="EP25" s="5"/>
-      <c r="EQ25" s="5"/>
-      <c r="ER25" s="5"/>
-      <c r="ES25" s="5"/>
-      <c r="ET25" s="5"/>
-      <c r="EU25" s="5"/>
-      <c r="EV25" s="5"/>
-      <c r="EW25" s="5"/>
-      <c r="EX25" s="5"/>
-      <c r="EY25" s="5"/>
-      <c r="EZ25" s="5"/>
-      <c r="FA25" s="5"/>
-      <c r="FB25" s="5"/>
-      <c r="FC25" s="5"/>
-      <c r="FD25" s="5"/>
-      <c r="FE25" s="5"/>
-      <c r="FF25" s="5"/>
-      <c r="FG25" s="5"/>
-      <c r="FH25" s="5"/>
-      <c r="FI25" s="5"/>
-      <c r="FJ25" s="5"/>
-      <c r="FK25" s="5"/>
-      <c r="FL25" s="5"/>
-      <c r="FM25" s="5"/>
-      <c r="FN25" s="5"/>
-    </row>
-    <row r="26" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27"/>
-    </row>
-    <row r="28" spans="1:170" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="5"/>
-      <c r="AN28" s="5"/>
-      <c r="AO28" s="5"/>
-      <c r="AP28" s="5"/>
-      <c r="AQ28" s="5"/>
-      <c r="AR28" s="5"/>
-      <c r="AS28" s="5"/>
-      <c r="AT28" s="5"/>
-      <c r="AU28" s="5"/>
-      <c r="AV28" s="5"/>
-      <c r="AW28" s="5"/>
-      <c r="AX28" s="5"/>
-      <c r="AY28" s="5"/>
-      <c r="AZ28" s="5"/>
-      <c r="BA28" s="5"/>
-      <c r="BB28" s="5"/>
-      <c r="BC28" s="5"/>
-      <c r="BD28" s="5"/>
-      <c r="BE28" s="5"/>
-      <c r="BF28" s="5"/>
-      <c r="BG28" s="5"/>
-      <c r="BH28" s="5"/>
-      <c r="BI28" s="5"/>
-      <c r="BJ28" s="5"/>
-      <c r="BK28" s="5"/>
-      <c r="BL28" s="5"/>
-      <c r="BM28" s="5"/>
-      <c r="BN28" s="5"/>
-      <c r="BO28" s="5"/>
-      <c r="BP28" s="5"/>
-      <c r="BQ28" s="5"/>
-      <c r="BR28" s="5"/>
-      <c r="BS28" s="5"/>
-      <c r="BT28" s="5"/>
-      <c r="BU28" s="5"/>
-      <c r="BV28" s="5"/>
-      <c r="BW28" s="5"/>
-      <c r="BX28" s="5"/>
-      <c r="BY28" s="5"/>
-      <c r="BZ28" s="5"/>
-      <c r="CA28" s="5"/>
-      <c r="CB28" s="5"/>
-      <c r="CC28" s="5"/>
-      <c r="CD28" s="5"/>
-      <c r="CE28" s="5"/>
-      <c r="CF28" s="5"/>
-      <c r="CG28" s="5"/>
-      <c r="CH28" s="5"/>
-      <c r="CI28" s="5"/>
-      <c r="CJ28" s="5"/>
-      <c r="CK28" s="5"/>
-      <c r="CL28" s="5"/>
-      <c r="CM28" s="5"/>
-      <c r="CN28" s="5"/>
-      <c r="CO28" s="5"/>
-      <c r="CP28" s="5"/>
-      <c r="CQ28" s="5"/>
-      <c r="CR28" s="5"/>
-      <c r="CS28" s="5"/>
-      <c r="CT28" s="5"/>
-      <c r="CU28" s="5"/>
-      <c r="CV28" s="5"/>
-      <c r="CW28" s="5"/>
-      <c r="CX28" s="5"/>
-      <c r="CY28" s="5"/>
-      <c r="CZ28" s="5"/>
-      <c r="DA28" s="5"/>
-      <c r="DB28" s="5"/>
-      <c r="DC28" s="5"/>
-      <c r="DD28" s="5"/>
-      <c r="DE28" s="5"/>
-      <c r="DF28" s="5"/>
-      <c r="DG28" s="5"/>
-      <c r="DH28" s="5"/>
-      <c r="DI28" s="5"/>
-      <c r="DJ28" s="5"/>
-      <c r="DK28" s="5"/>
-      <c r="DL28" s="5"/>
-      <c r="DM28" s="5"/>
-      <c r="DN28" s="5"/>
-      <c r="DO28" s="5"/>
-      <c r="DP28" s="5"/>
-      <c r="DQ28" s="5"/>
-      <c r="DR28" s="5"/>
-      <c r="DS28" s="5"/>
-      <c r="DT28" s="5"/>
-      <c r="DU28" s="5"/>
-      <c r="DV28" s="5"/>
-      <c r="DW28" s="5"/>
-      <c r="DX28" s="5"/>
-      <c r="DY28" s="5"/>
-      <c r="DZ28" s="5"/>
-      <c r="EA28" s="5"/>
-      <c r="EB28" s="5"/>
-      <c r="EC28" s="5"/>
-      <c r="ED28" s="5"/>
-      <c r="EE28" s="5"/>
-      <c r="EF28" s="5"/>
-      <c r="EG28" s="5"/>
-      <c r="EH28" s="5"/>
-      <c r="EI28" s="5"/>
-      <c r="EJ28" s="5"/>
-      <c r="EK28" s="5"/>
-      <c r="EL28" s="5"/>
-      <c r="EM28" s="5"/>
-      <c r="EN28" s="5"/>
-      <c r="EO28" s="5"/>
-      <c r="EP28" s="5"/>
-      <c r="EQ28" s="5"/>
-      <c r="ER28" s="5"/>
-      <c r="ES28" s="5"/>
-      <c r="ET28" s="5"/>
-      <c r="EU28" s="5"/>
-      <c r="EV28" s="5"/>
-      <c r="EW28" s="5"/>
-      <c r="EX28" s="5"/>
-      <c r="EY28" s="5"/>
-      <c r="EZ28" s="5"/>
-      <c r="FA28" s="5"/>
-      <c r="FB28" s="5"/>
-      <c r="FC28" s="5"/>
-      <c r="FD28" s="5"/>
-      <c r="FE28" s="5"/>
-      <c r="FF28" s="5"/>
-      <c r="FG28" s="5"/>
-      <c r="FH28" s="5"/>
-      <c r="FI28" s="5"/>
-      <c r="FJ28" s="5"/>
-      <c r="FK28" s="5"/>
-      <c r="FL28" s="5"/>
-      <c r="FM28" s="5"/>
-      <c r="FN28" s="5"/>
-    </row>
-    <row r="29" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="27"/>
-    </row>
-    <row r="30" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27"/>
-    </row>
-    <row r="31" spans="1:170" s="3" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="5"/>
-      <c r="AF31" s="5"/>
-      <c r="AG31" s="5"/>
-      <c r="AH31" s="5"/>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="5"/>
-      <c r="AM31" s="5"/>
-      <c r="AN31" s="5"/>
-      <c r="AO31" s="5"/>
-      <c r="AP31" s="5"/>
-      <c r="AQ31" s="5"/>
-      <c r="AR31" s="5"/>
-      <c r="AS31" s="5"/>
-      <c r="AT31" s="5"/>
-      <c r="AU31" s="5"/>
-      <c r="AV31" s="5"/>
-      <c r="AW31" s="5"/>
-      <c r="AX31" s="5"/>
-      <c r="AY31" s="5"/>
-      <c r="AZ31" s="5"/>
-      <c r="BA31" s="5"/>
-      <c r="BB31" s="5"/>
-      <c r="BC31" s="5"/>
-      <c r="BD31" s="5"/>
-      <c r="BE31" s="5"/>
-      <c r="BF31" s="5"/>
-      <c r="BG31" s="5"/>
-      <c r="BH31" s="5"/>
-      <c r="BI31" s="5"/>
-      <c r="BJ31" s="5"/>
-      <c r="BK31" s="5"/>
-      <c r="BL31" s="5"/>
-      <c r="BM31" s="5"/>
-      <c r="BN31" s="5"/>
-      <c r="BO31" s="5"/>
-      <c r="BP31" s="5"/>
-      <c r="BQ31" s="5"/>
-      <c r="BR31" s="5"/>
-      <c r="BS31" s="5"/>
-      <c r="BT31" s="5"/>
-      <c r="BU31" s="5"/>
-      <c r="BV31" s="5"/>
-      <c r="BW31" s="5"/>
-      <c r="BX31" s="5"/>
-      <c r="BY31" s="5"/>
-      <c r="BZ31" s="5"/>
-      <c r="CA31" s="5"/>
-      <c r="CB31" s="5"/>
-      <c r="CC31" s="5"/>
-      <c r="CD31" s="5"/>
-      <c r="CE31" s="5"/>
-      <c r="CF31" s="5"/>
-      <c r="CG31" s="5"/>
-      <c r="CH31" s="5"/>
-      <c r="CI31" s="5"/>
-      <c r="CJ31" s="5"/>
-      <c r="CK31" s="5"/>
-      <c r="CL31" s="5"/>
-      <c r="CM31" s="5"/>
-      <c r="CN31" s="5"/>
-      <c r="CO31" s="5"/>
-      <c r="CP31" s="5"/>
-      <c r="CQ31" s="5"/>
-      <c r="CR31" s="5"/>
-      <c r="CS31" s="5"/>
-      <c r="CT31" s="5"/>
-      <c r="CU31" s="5"/>
-      <c r="CV31" s="5"/>
-      <c r="CW31" s="5"/>
-      <c r="CX31" s="5"/>
-      <c r="CY31" s="5"/>
-      <c r="CZ31" s="5"/>
-      <c r="DA31" s="5"/>
-      <c r="DB31" s="5"/>
-      <c r="DC31" s="5"/>
-      <c r="DD31" s="5"/>
-      <c r="DE31" s="5"/>
-      <c r="DF31" s="5"/>
-      <c r="DG31" s="5"/>
-      <c r="DH31" s="5"/>
-      <c r="DI31" s="5"/>
-      <c r="DJ31" s="5"/>
-      <c r="DK31" s="5"/>
-      <c r="DL31" s="5"/>
-      <c r="DM31" s="5"/>
-      <c r="DN31" s="5"/>
-      <c r="DO31" s="5"/>
-      <c r="DP31" s="5"/>
-      <c r="DQ31" s="5"/>
-      <c r="DR31" s="5"/>
-      <c r="DS31" s="5"/>
-      <c r="DT31" s="5"/>
-      <c r="DU31" s="5"/>
-      <c r="DV31" s="5"/>
-      <c r="DW31" s="5"/>
-      <c r="DX31" s="5"/>
-      <c r="DY31" s="5"/>
-      <c r="DZ31" s="5"/>
-      <c r="EA31" s="5"/>
-      <c r="EB31" s="5"/>
-      <c r="EC31" s="5"/>
-      <c r="ED31" s="5"/>
-      <c r="EE31" s="5"/>
-      <c r="EF31" s="5"/>
-      <c r="EG31" s="5"/>
-      <c r="EH31" s="5"/>
-      <c r="EI31" s="5"/>
-      <c r="EJ31" s="5"/>
-      <c r="EK31" s="5"/>
-      <c r="EL31" s="5"/>
-      <c r="EM31" s="5"/>
-      <c r="EN31" s="5"/>
-      <c r="EO31" s="5"/>
-      <c r="EP31" s="5"/>
-      <c r="EQ31" s="5"/>
-      <c r="ER31" s="5"/>
-      <c r="ES31" s="5"/>
-      <c r="ET31" s="5"/>
-      <c r="EU31" s="5"/>
-      <c r="EV31" s="5"/>
-      <c r="EW31" s="5"/>
-      <c r="EX31" s="5"/>
-      <c r="EY31" s="5"/>
-      <c r="EZ31" s="5"/>
-      <c r="FA31" s="5"/>
-      <c r="FB31" s="5"/>
-      <c r="FC31" s="5"/>
-      <c r="FD31" s="5"/>
-      <c r="FE31" s="5"/>
-      <c r="FF31" s="5"/>
-      <c r="FG31" s="5"/>
-      <c r="FH31" s="5"/>
-      <c r="FI31" s="5"/>
-      <c r="FJ31" s="5"/>
-      <c r="FK31" s="5"/>
-      <c r="FL31" s="5"/>
-      <c r="FM31" s="5"/>
-      <c r="FN31" s="5"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:170" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="29"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="5"/>
+      <c r="AI45" s="5"/>
+      <c r="AJ45" s="5"/>
+      <c r="AK45" s="5"/>
+      <c r="AL45" s="5"/>
+      <c r="AM45" s="5"/>
+      <c r="AN45" s="5"/>
+      <c r="AO45" s="5"/>
+      <c r="AP45" s="5"/>
+      <c r="AQ45" s="5"/>
+      <c r="AR45" s="5"/>
+      <c r="AS45" s="5"/>
+      <c r="AT45" s="5"/>
+      <c r="AU45" s="5"/>
+      <c r="AV45" s="5"/>
+      <c r="AW45" s="5"/>
+      <c r="AX45" s="5"/>
+      <c r="AY45" s="5"/>
+      <c r="AZ45" s="5"/>
+      <c r="BA45" s="5"/>
+      <c r="BB45" s="5"/>
+      <c r="BC45" s="5"/>
+      <c r="BD45" s="5"/>
+      <c r="BE45" s="5"/>
+      <c r="BF45" s="5"/>
+      <c r="BG45" s="5"/>
+      <c r="BH45" s="5"/>
+      <c r="BI45" s="5"/>
+      <c r="BJ45" s="5"/>
+      <c r="BK45" s="5"/>
+      <c r="BL45" s="5"/>
+      <c r="BM45" s="5"/>
+      <c r="BN45" s="5"/>
+      <c r="BO45" s="5"/>
+      <c r="BP45" s="5"/>
+      <c r="BQ45" s="5"/>
+      <c r="BR45" s="5"/>
+      <c r="BS45" s="5"/>
+      <c r="BT45" s="5"/>
+      <c r="BU45" s="5"/>
+      <c r="BV45" s="5"/>
+      <c r="BW45" s="5"/>
+      <c r="BX45" s="5"/>
+      <c r="BY45" s="5"/>
+      <c r="BZ45" s="5"/>
+      <c r="CA45" s="5"/>
+      <c r="CB45" s="5"/>
+      <c r="CC45" s="5"/>
+      <c r="CD45" s="5"/>
+      <c r="CE45" s="5"/>
+      <c r="CF45" s="5"/>
+      <c r="CG45" s="5"/>
+      <c r="CH45" s="5"/>
+      <c r="CI45" s="5"/>
+      <c r="CJ45" s="5"/>
+      <c r="CK45" s="5"/>
+      <c r="CL45" s="5"/>
+      <c r="CM45" s="5"/>
+      <c r="CN45" s="5"/>
+      <c r="CO45" s="5"/>
+      <c r="CP45" s="5"/>
+      <c r="CQ45" s="5"/>
+      <c r="CR45" s="5"/>
+      <c r="CS45" s="5"/>
+      <c r="CT45" s="5"/>
+      <c r="CU45" s="5"/>
+      <c r="CV45" s="5"/>
+      <c r="CW45" s="5"/>
+      <c r="CX45" s="5"/>
+      <c r="CY45" s="5"/>
+      <c r="CZ45" s="5"/>
+      <c r="DA45" s="5"/>
+      <c r="DB45" s="5"/>
+      <c r="DC45" s="5"/>
+      <c r="DD45" s="5"/>
+      <c r="DE45" s="5"/>
+      <c r="DF45" s="5"/>
+      <c r="DG45" s="5"/>
+      <c r="DH45" s="5"/>
+      <c r="DI45" s="5"/>
+      <c r="DJ45" s="5"/>
+      <c r="DK45" s="5"/>
+      <c r="DL45" s="5"/>
+      <c r="DM45" s="5"/>
+      <c r="DN45" s="5"/>
+      <c r="DO45" s="5"/>
+      <c r="DP45" s="5"/>
+      <c r="DQ45" s="5"/>
+      <c r="DR45" s="5"/>
+      <c r="DS45" s="5"/>
+      <c r="DT45" s="5"/>
+      <c r="DU45" s="5"/>
+      <c r="DV45" s="5"/>
+      <c r="DW45" s="5"/>
+      <c r="DX45" s="5"/>
+      <c r="DY45" s="5"/>
+      <c r="DZ45" s="5"/>
+      <c r="EA45" s="5"/>
+      <c r="EB45" s="5"/>
+      <c r="EC45" s="5"/>
+      <c r="ED45" s="5"/>
+      <c r="EE45" s="5"/>
+      <c r="EF45" s="5"/>
+      <c r="EG45" s="5"/>
+      <c r="EH45" s="5"/>
+      <c r="EI45" s="5"/>
+      <c r="EJ45" s="5"/>
+      <c r="EK45" s="5"/>
+      <c r="EL45" s="5"/>
+      <c r="EM45" s="5"/>
+      <c r="EN45" s="5"/>
+      <c r="EO45" s="5"/>
+      <c r="EP45" s="5"/>
+      <c r="EQ45" s="5"/>
+      <c r="ER45" s="5"/>
+      <c r="ES45" s="5"/>
+      <c r="ET45" s="5"/>
+      <c r="EU45" s="5"/>
+      <c r="EV45" s="5"/>
+      <c r="EW45" s="5"/>
+      <c r="EX45" s="5"/>
+      <c r="EY45" s="5"/>
+      <c r="EZ45" s="5"/>
+      <c r="FA45" s="5"/>
+      <c r="FB45" s="5"/>
+      <c r="FC45" s="5"/>
+      <c r="FD45" s="5"/>
+      <c r="FE45" s="5"/>
+      <c r="FF45" s="5"/>
+      <c r="FG45" s="5"/>
+      <c r="FH45" s="5"/>
+      <c r="FI45" s="5"/>
+      <c r="FJ45" s="5"/>
+      <c r="FK45" s="5"/>
+      <c r="FL45" s="5"/>
+      <c r="FM45" s="5"/>
+      <c r="FN45" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A45:E45"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A22:E22"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>

--- a/logs/RitchieMichael_TimeEstimation.xlsx
+++ b/logs/RitchieMichael_TimeEstimation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6160" yWindow="460" windowWidth="22640" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="13060" yWindow="460" windowWidth="15740" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Michael Ritchie</t>
   </si>
@@ -144,6 +144,36 @@
   </si>
   <si>
     <t>The Burn-Up List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WK 3: The Week Ahead </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Career Module: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WK 3: GoToTraining (GTT) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WK 3: Call to Action - Encouragement! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communicating with Clarity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communicating with Visual Tools </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WK 3: Research </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WK 3: Development </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WK 3: Project &amp; Portfolio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Burn-Up List </t>
   </si>
 </sst>
 </file>
@@ -336,6 +366,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -353,15 +392,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,15 +670,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FN45"/>
+  <dimension ref="A1:FN54"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.1640625" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.1640625" style="4" customWidth="1"/>
     <col min="3" max="5" width="16.1640625" style="16"/>
     <col min="6" max="170" width="16.1640625" style="6"/>
@@ -656,13 +686,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:170" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -830,13 +860,13 @@
       <c r="FN1" s="7"/>
     </row>
     <row r="2" spans="1:170" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -1004,13 +1034,13 @@
       <c r="FN2" s="7"/>
     </row>
     <row r="3" spans="1:170" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -1178,11 +1208,11 @@
       <c r="FN3" s="7"/>
     </row>
     <row r="4" spans="1:170" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1779,11 +1809,11 @@
       </c>
     </row>
     <row r="22" spans="1:170" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2200,11 +2230,11 @@
       </c>
     </row>
     <row r="39" spans="1:170" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="29"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="31"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -2382,376 +2412,529 @@
     </row>
     <row r="41" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15"/>
-    </row>
-    <row r="42" spans="1:170" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="29"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="5"/>
-      <c r="AB42" s="5"/>
-      <c r="AC42" s="5"/>
-      <c r="AD42" s="5"/>
-      <c r="AE42" s="5"/>
-      <c r="AF42" s="5"/>
-      <c r="AG42" s="5"/>
-      <c r="AH42" s="5"/>
-      <c r="AI42" s="5"/>
-      <c r="AJ42" s="5"/>
-      <c r="AK42" s="5"/>
-      <c r="AL42" s="5"/>
-      <c r="AM42" s="5"/>
-      <c r="AN42" s="5"/>
-      <c r="AO42" s="5"/>
-      <c r="AP42" s="5"/>
-      <c r="AQ42" s="5"/>
-      <c r="AR42" s="5"/>
-      <c r="AS42" s="5"/>
-      <c r="AT42" s="5"/>
-      <c r="AU42" s="5"/>
-      <c r="AV42" s="5"/>
-      <c r="AW42" s="5"/>
-      <c r="AX42" s="5"/>
-      <c r="AY42" s="5"/>
-      <c r="AZ42" s="5"/>
-      <c r="BA42" s="5"/>
-      <c r="BB42" s="5"/>
-      <c r="BC42" s="5"/>
-      <c r="BD42" s="5"/>
-      <c r="BE42" s="5"/>
-      <c r="BF42" s="5"/>
-      <c r="BG42" s="5"/>
-      <c r="BH42" s="5"/>
-      <c r="BI42" s="5"/>
-      <c r="BJ42" s="5"/>
-      <c r="BK42" s="5"/>
-      <c r="BL42" s="5"/>
-      <c r="BM42" s="5"/>
-      <c r="BN42" s="5"/>
-      <c r="BO42" s="5"/>
-      <c r="BP42" s="5"/>
-      <c r="BQ42" s="5"/>
-      <c r="BR42" s="5"/>
-      <c r="BS42" s="5"/>
-      <c r="BT42" s="5"/>
-      <c r="BU42" s="5"/>
-      <c r="BV42" s="5"/>
-      <c r="BW42" s="5"/>
-      <c r="BX42" s="5"/>
-      <c r="BY42" s="5"/>
-      <c r="BZ42" s="5"/>
-      <c r="CA42" s="5"/>
-      <c r="CB42" s="5"/>
-      <c r="CC42" s="5"/>
-      <c r="CD42" s="5"/>
-      <c r="CE42" s="5"/>
-      <c r="CF42" s="5"/>
-      <c r="CG42" s="5"/>
-      <c r="CH42" s="5"/>
-      <c r="CI42" s="5"/>
-      <c r="CJ42" s="5"/>
-      <c r="CK42" s="5"/>
-      <c r="CL42" s="5"/>
-      <c r="CM42" s="5"/>
-      <c r="CN42" s="5"/>
-      <c r="CO42" s="5"/>
-      <c r="CP42" s="5"/>
-      <c r="CQ42" s="5"/>
-      <c r="CR42" s="5"/>
-      <c r="CS42" s="5"/>
-      <c r="CT42" s="5"/>
-      <c r="CU42" s="5"/>
-      <c r="CV42" s="5"/>
-      <c r="CW42" s="5"/>
-      <c r="CX42" s="5"/>
-      <c r="CY42" s="5"/>
-      <c r="CZ42" s="5"/>
-      <c r="DA42" s="5"/>
-      <c r="DB42" s="5"/>
-      <c r="DC42" s="5"/>
-      <c r="DD42" s="5"/>
-      <c r="DE42" s="5"/>
-      <c r="DF42" s="5"/>
-      <c r="DG42" s="5"/>
-      <c r="DH42" s="5"/>
-      <c r="DI42" s="5"/>
-      <c r="DJ42" s="5"/>
-      <c r="DK42" s="5"/>
-      <c r="DL42" s="5"/>
-      <c r="DM42" s="5"/>
-      <c r="DN42" s="5"/>
-      <c r="DO42" s="5"/>
-      <c r="DP42" s="5"/>
-      <c r="DQ42" s="5"/>
-      <c r="DR42" s="5"/>
-      <c r="DS42" s="5"/>
-      <c r="DT42" s="5"/>
-      <c r="DU42" s="5"/>
-      <c r="DV42" s="5"/>
-      <c r="DW42" s="5"/>
-      <c r="DX42" s="5"/>
-      <c r="DY42" s="5"/>
-      <c r="DZ42" s="5"/>
-      <c r="EA42" s="5"/>
-      <c r="EB42" s="5"/>
-      <c r="EC42" s="5"/>
-      <c r="ED42" s="5"/>
-      <c r="EE42" s="5"/>
-      <c r="EF42" s="5"/>
-      <c r="EG42" s="5"/>
-      <c r="EH42" s="5"/>
-      <c r="EI42" s="5"/>
-      <c r="EJ42" s="5"/>
-      <c r="EK42" s="5"/>
-      <c r="EL42" s="5"/>
-      <c r="EM42" s="5"/>
-      <c r="EN42" s="5"/>
-      <c r="EO42" s="5"/>
-      <c r="EP42" s="5"/>
-      <c r="EQ42" s="5"/>
-      <c r="ER42" s="5"/>
-      <c r="ES42" s="5"/>
-      <c r="ET42" s="5"/>
-      <c r="EU42" s="5"/>
-      <c r="EV42" s="5"/>
-      <c r="EW42" s="5"/>
-      <c r="EX42" s="5"/>
-      <c r="EY42" s="5"/>
-      <c r="EZ42" s="5"/>
-      <c r="FA42" s="5"/>
-      <c r="FB42" s="5"/>
-      <c r="FC42" s="5"/>
-      <c r="FD42" s="5"/>
-      <c r="FE42" s="5"/>
-      <c r="FF42" s="5"/>
-      <c r="FG42" s="5"/>
-      <c r="FH42" s="5"/>
-      <c r="FI42" s="5"/>
-      <c r="FJ42" s="5"/>
-      <c r="FK42" s="5"/>
-      <c r="FL42" s="5"/>
-      <c r="FM42" s="5"/>
-      <c r="FN42" s="5"/>
+      <c r="B41" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="14">
+        <v>2</v>
+      </c>
+      <c r="D41" s="14">
+        <v>3</v>
+      </c>
+      <c r="E41" s="13">
+        <f t="shared" ref="E41:E50" si="2">C41-D41</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="14">
+        <v>45</v>
+      </c>
+      <c r="D42" s="14">
+        <v>60</v>
+      </c>
+      <c r="E42" s="13">
+        <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
     </row>
     <row r="43" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="15"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="14">
+        <v>30</v>
+      </c>
+      <c r="D43" s="14">
+        <v>40</v>
+      </c>
+      <c r="E43" s="13">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
     </row>
     <row r="44" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="15"/>
-    </row>
-    <row r="45" spans="1:170" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="29"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="5"/>
-      <c r="AB45" s="5"/>
-      <c r="AC45" s="5"/>
-      <c r="AD45" s="5"/>
-      <c r="AE45" s="5"/>
-      <c r="AF45" s="5"/>
-      <c r="AG45" s="5"/>
-      <c r="AH45" s="5"/>
-      <c r="AI45" s="5"/>
-      <c r="AJ45" s="5"/>
-      <c r="AK45" s="5"/>
-      <c r="AL45" s="5"/>
-      <c r="AM45" s="5"/>
-      <c r="AN45" s="5"/>
-      <c r="AO45" s="5"/>
-      <c r="AP45" s="5"/>
-      <c r="AQ45" s="5"/>
-      <c r="AR45" s="5"/>
-      <c r="AS45" s="5"/>
-      <c r="AT45" s="5"/>
-      <c r="AU45" s="5"/>
-      <c r="AV45" s="5"/>
-      <c r="AW45" s="5"/>
-      <c r="AX45" s="5"/>
-      <c r="AY45" s="5"/>
-      <c r="AZ45" s="5"/>
-      <c r="BA45" s="5"/>
-      <c r="BB45" s="5"/>
-      <c r="BC45" s="5"/>
-      <c r="BD45" s="5"/>
-      <c r="BE45" s="5"/>
-      <c r="BF45" s="5"/>
-      <c r="BG45" s="5"/>
-      <c r="BH45" s="5"/>
-      <c r="BI45" s="5"/>
-      <c r="BJ45" s="5"/>
-      <c r="BK45" s="5"/>
-      <c r="BL45" s="5"/>
-      <c r="BM45" s="5"/>
-      <c r="BN45" s="5"/>
-      <c r="BO45" s="5"/>
-      <c r="BP45" s="5"/>
-      <c r="BQ45" s="5"/>
-      <c r="BR45" s="5"/>
-      <c r="BS45" s="5"/>
-      <c r="BT45" s="5"/>
-      <c r="BU45" s="5"/>
-      <c r="BV45" s="5"/>
-      <c r="BW45" s="5"/>
-      <c r="BX45" s="5"/>
-      <c r="BY45" s="5"/>
-      <c r="BZ45" s="5"/>
-      <c r="CA45" s="5"/>
-      <c r="CB45" s="5"/>
-      <c r="CC45" s="5"/>
-      <c r="CD45" s="5"/>
-      <c r="CE45" s="5"/>
-      <c r="CF45" s="5"/>
-      <c r="CG45" s="5"/>
-      <c r="CH45" s="5"/>
-      <c r="CI45" s="5"/>
-      <c r="CJ45" s="5"/>
-      <c r="CK45" s="5"/>
-      <c r="CL45" s="5"/>
-      <c r="CM45" s="5"/>
-      <c r="CN45" s="5"/>
-      <c r="CO45" s="5"/>
-      <c r="CP45" s="5"/>
-      <c r="CQ45" s="5"/>
-      <c r="CR45" s="5"/>
-      <c r="CS45" s="5"/>
-      <c r="CT45" s="5"/>
-      <c r="CU45" s="5"/>
-      <c r="CV45" s="5"/>
-      <c r="CW45" s="5"/>
-      <c r="CX45" s="5"/>
-      <c r="CY45" s="5"/>
-      <c r="CZ45" s="5"/>
-      <c r="DA45" s="5"/>
-      <c r="DB45" s="5"/>
-      <c r="DC45" s="5"/>
-      <c r="DD45" s="5"/>
-      <c r="DE45" s="5"/>
-      <c r="DF45" s="5"/>
-      <c r="DG45" s="5"/>
-      <c r="DH45" s="5"/>
-      <c r="DI45" s="5"/>
-      <c r="DJ45" s="5"/>
-      <c r="DK45" s="5"/>
-      <c r="DL45" s="5"/>
-      <c r="DM45" s="5"/>
-      <c r="DN45" s="5"/>
-      <c r="DO45" s="5"/>
-      <c r="DP45" s="5"/>
-      <c r="DQ45" s="5"/>
-      <c r="DR45" s="5"/>
-      <c r="DS45" s="5"/>
-      <c r="DT45" s="5"/>
-      <c r="DU45" s="5"/>
-      <c r="DV45" s="5"/>
-      <c r="DW45" s="5"/>
-      <c r="DX45" s="5"/>
-      <c r="DY45" s="5"/>
-      <c r="DZ45" s="5"/>
-      <c r="EA45" s="5"/>
-      <c r="EB45" s="5"/>
-      <c r="EC45" s="5"/>
-      <c r="ED45" s="5"/>
-      <c r="EE45" s="5"/>
-      <c r="EF45" s="5"/>
-      <c r="EG45" s="5"/>
-      <c r="EH45" s="5"/>
-      <c r="EI45" s="5"/>
-      <c r="EJ45" s="5"/>
-      <c r="EK45" s="5"/>
-      <c r="EL45" s="5"/>
-      <c r="EM45" s="5"/>
-      <c r="EN45" s="5"/>
-      <c r="EO45" s="5"/>
-      <c r="EP45" s="5"/>
-      <c r="EQ45" s="5"/>
-      <c r="ER45" s="5"/>
-      <c r="ES45" s="5"/>
-      <c r="ET45" s="5"/>
-      <c r="EU45" s="5"/>
-      <c r="EV45" s="5"/>
-      <c r="EW45" s="5"/>
-      <c r="EX45" s="5"/>
-      <c r="EY45" s="5"/>
-      <c r="EZ45" s="5"/>
-      <c r="FA45" s="5"/>
-      <c r="FB45" s="5"/>
-      <c r="FC45" s="5"/>
-      <c r="FD45" s="5"/>
-      <c r="FE45" s="5"/>
-      <c r="FF45" s="5"/>
-      <c r="FG45" s="5"/>
-      <c r="FH45" s="5"/>
-      <c r="FI45" s="5"/>
-      <c r="FJ45" s="5"/>
-      <c r="FK45" s="5"/>
-      <c r="FL45" s="5"/>
-      <c r="FM45" s="5"/>
-      <c r="FN45" s="5"/>
+      <c r="B44" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="14">
+        <v>60</v>
+      </c>
+      <c r="D44" s="14">
+        <v>70</v>
+      </c>
+      <c r="E44" s="13">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+      <c r="B45" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="14">
+        <v>10</v>
+      </c>
+      <c r="D45" s="14">
+        <v>5</v>
+      </c>
+      <c r="E45" s="13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
+      <c r="B46" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="14">
+        <v>30</v>
+      </c>
+      <c r="D46" s="14">
+        <v>45</v>
+      </c>
+      <c r="E46" s="13">
+        <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+      <c r="B47" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="14">
+        <v>15</v>
+      </c>
+      <c r="D47" s="14">
+        <v>15</v>
+      </c>
+      <c r="E47" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="9"/>
+      <c r="B48" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="14">
+        <v>10</v>
+      </c>
+      <c r="D48" s="14">
+        <v>10</v>
+      </c>
+      <c r="E48" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="9"/>
+      <c r="B49" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="14">
+        <v>65</v>
+      </c>
+      <c r="D49" s="14">
+        <v>70</v>
+      </c>
+      <c r="E49" s="13">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="9"/>
+      <c r="B50" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="14">
+        <v>30</v>
+      </c>
+      <c r="D50" s="14">
+        <v>30</v>
+      </c>
+      <c r="E50" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:170" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="23"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="5"/>
+      <c r="AH51" s="5"/>
+      <c r="AI51" s="5"/>
+      <c r="AJ51" s="5"/>
+      <c r="AK51" s="5"/>
+      <c r="AL51" s="5"/>
+      <c r="AM51" s="5"/>
+      <c r="AN51" s="5"/>
+      <c r="AO51" s="5"/>
+      <c r="AP51" s="5"/>
+      <c r="AQ51" s="5"/>
+      <c r="AR51" s="5"/>
+      <c r="AS51" s="5"/>
+      <c r="AT51" s="5"/>
+      <c r="AU51" s="5"/>
+      <c r="AV51" s="5"/>
+      <c r="AW51" s="5"/>
+      <c r="AX51" s="5"/>
+      <c r="AY51" s="5"/>
+      <c r="AZ51" s="5"/>
+      <c r="BA51" s="5"/>
+      <c r="BB51" s="5"/>
+      <c r="BC51" s="5"/>
+      <c r="BD51" s="5"/>
+      <c r="BE51" s="5"/>
+      <c r="BF51" s="5"/>
+      <c r="BG51" s="5"/>
+      <c r="BH51" s="5"/>
+      <c r="BI51" s="5"/>
+      <c r="BJ51" s="5"/>
+      <c r="BK51" s="5"/>
+      <c r="BL51" s="5"/>
+      <c r="BM51" s="5"/>
+      <c r="BN51" s="5"/>
+      <c r="BO51" s="5"/>
+      <c r="BP51" s="5"/>
+      <c r="BQ51" s="5"/>
+      <c r="BR51" s="5"/>
+      <c r="BS51" s="5"/>
+      <c r="BT51" s="5"/>
+      <c r="BU51" s="5"/>
+      <c r="BV51" s="5"/>
+      <c r="BW51" s="5"/>
+      <c r="BX51" s="5"/>
+      <c r="BY51" s="5"/>
+      <c r="BZ51" s="5"/>
+      <c r="CA51" s="5"/>
+      <c r="CB51" s="5"/>
+      <c r="CC51" s="5"/>
+      <c r="CD51" s="5"/>
+      <c r="CE51" s="5"/>
+      <c r="CF51" s="5"/>
+      <c r="CG51" s="5"/>
+      <c r="CH51" s="5"/>
+      <c r="CI51" s="5"/>
+      <c r="CJ51" s="5"/>
+      <c r="CK51" s="5"/>
+      <c r="CL51" s="5"/>
+      <c r="CM51" s="5"/>
+      <c r="CN51" s="5"/>
+      <c r="CO51" s="5"/>
+      <c r="CP51" s="5"/>
+      <c r="CQ51" s="5"/>
+      <c r="CR51" s="5"/>
+      <c r="CS51" s="5"/>
+      <c r="CT51" s="5"/>
+      <c r="CU51" s="5"/>
+      <c r="CV51" s="5"/>
+      <c r="CW51" s="5"/>
+      <c r="CX51" s="5"/>
+      <c r="CY51" s="5"/>
+      <c r="CZ51" s="5"/>
+      <c r="DA51" s="5"/>
+      <c r="DB51" s="5"/>
+      <c r="DC51" s="5"/>
+      <c r="DD51" s="5"/>
+      <c r="DE51" s="5"/>
+      <c r="DF51" s="5"/>
+      <c r="DG51" s="5"/>
+      <c r="DH51" s="5"/>
+      <c r="DI51" s="5"/>
+      <c r="DJ51" s="5"/>
+      <c r="DK51" s="5"/>
+      <c r="DL51" s="5"/>
+      <c r="DM51" s="5"/>
+      <c r="DN51" s="5"/>
+      <c r="DO51" s="5"/>
+      <c r="DP51" s="5"/>
+      <c r="DQ51" s="5"/>
+      <c r="DR51" s="5"/>
+      <c r="DS51" s="5"/>
+      <c r="DT51" s="5"/>
+      <c r="DU51" s="5"/>
+      <c r="DV51" s="5"/>
+      <c r="DW51" s="5"/>
+      <c r="DX51" s="5"/>
+      <c r="DY51" s="5"/>
+      <c r="DZ51" s="5"/>
+      <c r="EA51" s="5"/>
+      <c r="EB51" s="5"/>
+      <c r="EC51" s="5"/>
+      <c r="ED51" s="5"/>
+      <c r="EE51" s="5"/>
+      <c r="EF51" s="5"/>
+      <c r="EG51" s="5"/>
+      <c r="EH51" s="5"/>
+      <c r="EI51" s="5"/>
+      <c r="EJ51" s="5"/>
+      <c r="EK51" s="5"/>
+      <c r="EL51" s="5"/>
+      <c r="EM51" s="5"/>
+      <c r="EN51" s="5"/>
+      <c r="EO51" s="5"/>
+      <c r="EP51" s="5"/>
+      <c r="EQ51" s="5"/>
+      <c r="ER51" s="5"/>
+      <c r="ES51" s="5"/>
+      <c r="ET51" s="5"/>
+      <c r="EU51" s="5"/>
+      <c r="EV51" s="5"/>
+      <c r="EW51" s="5"/>
+      <c r="EX51" s="5"/>
+      <c r="EY51" s="5"/>
+      <c r="EZ51" s="5"/>
+      <c r="FA51" s="5"/>
+      <c r="FB51" s="5"/>
+      <c r="FC51" s="5"/>
+      <c r="FD51" s="5"/>
+      <c r="FE51" s="5"/>
+      <c r="FF51" s="5"/>
+      <c r="FG51" s="5"/>
+      <c r="FH51" s="5"/>
+      <c r="FI51" s="5"/>
+      <c r="FJ51" s="5"/>
+      <c r="FK51" s="5"/>
+      <c r="FL51" s="5"/>
+      <c r="FM51" s="5"/>
+      <c r="FN51" s="5"/>
+    </row>
+    <row r="52" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15"/>
+    </row>
+    <row r="53" spans="1:170" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="9"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" spans="1:170" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5"/>
+      <c r="AI54" s="5"/>
+      <c r="AJ54" s="5"/>
+      <c r="AK54" s="5"/>
+      <c r="AL54" s="5"/>
+      <c r="AM54" s="5"/>
+      <c r="AN54" s="5"/>
+      <c r="AO54" s="5"/>
+      <c r="AP54" s="5"/>
+      <c r="AQ54" s="5"/>
+      <c r="AR54" s="5"/>
+      <c r="AS54" s="5"/>
+      <c r="AT54" s="5"/>
+      <c r="AU54" s="5"/>
+      <c r="AV54" s="5"/>
+      <c r="AW54" s="5"/>
+      <c r="AX54" s="5"/>
+      <c r="AY54" s="5"/>
+      <c r="AZ54" s="5"/>
+      <c r="BA54" s="5"/>
+      <c r="BB54" s="5"/>
+      <c r="BC54" s="5"/>
+      <c r="BD54" s="5"/>
+      <c r="BE54" s="5"/>
+      <c r="BF54" s="5"/>
+      <c r="BG54" s="5"/>
+      <c r="BH54" s="5"/>
+      <c r="BI54" s="5"/>
+      <c r="BJ54" s="5"/>
+      <c r="BK54" s="5"/>
+      <c r="BL54" s="5"/>
+      <c r="BM54" s="5"/>
+      <c r="BN54" s="5"/>
+      <c r="BO54" s="5"/>
+      <c r="BP54" s="5"/>
+      <c r="BQ54" s="5"/>
+      <c r="BR54" s="5"/>
+      <c r="BS54" s="5"/>
+      <c r="BT54" s="5"/>
+      <c r="BU54" s="5"/>
+      <c r="BV54" s="5"/>
+      <c r="BW54" s="5"/>
+      <c r="BX54" s="5"/>
+      <c r="BY54" s="5"/>
+      <c r="BZ54" s="5"/>
+      <c r="CA54" s="5"/>
+      <c r="CB54" s="5"/>
+      <c r="CC54" s="5"/>
+      <c r="CD54" s="5"/>
+      <c r="CE54" s="5"/>
+      <c r="CF54" s="5"/>
+      <c r="CG54" s="5"/>
+      <c r="CH54" s="5"/>
+      <c r="CI54" s="5"/>
+      <c r="CJ54" s="5"/>
+      <c r="CK54" s="5"/>
+      <c r="CL54" s="5"/>
+      <c r="CM54" s="5"/>
+      <c r="CN54" s="5"/>
+      <c r="CO54" s="5"/>
+      <c r="CP54" s="5"/>
+      <c r="CQ54" s="5"/>
+      <c r="CR54" s="5"/>
+      <c r="CS54" s="5"/>
+      <c r="CT54" s="5"/>
+      <c r="CU54" s="5"/>
+      <c r="CV54" s="5"/>
+      <c r="CW54" s="5"/>
+      <c r="CX54" s="5"/>
+      <c r="CY54" s="5"/>
+      <c r="CZ54" s="5"/>
+      <c r="DA54" s="5"/>
+      <c r="DB54" s="5"/>
+      <c r="DC54" s="5"/>
+      <c r="DD54" s="5"/>
+      <c r="DE54" s="5"/>
+      <c r="DF54" s="5"/>
+      <c r="DG54" s="5"/>
+      <c r="DH54" s="5"/>
+      <c r="DI54" s="5"/>
+      <c r="DJ54" s="5"/>
+      <c r="DK54" s="5"/>
+      <c r="DL54" s="5"/>
+      <c r="DM54" s="5"/>
+      <c r="DN54" s="5"/>
+      <c r="DO54" s="5"/>
+      <c r="DP54" s="5"/>
+      <c r="DQ54" s="5"/>
+      <c r="DR54" s="5"/>
+      <c r="DS54" s="5"/>
+      <c r="DT54" s="5"/>
+      <c r="DU54" s="5"/>
+      <c r="DV54" s="5"/>
+      <c r="DW54" s="5"/>
+      <c r="DX54" s="5"/>
+      <c r="DY54" s="5"/>
+      <c r="DZ54" s="5"/>
+      <c r="EA54" s="5"/>
+      <c r="EB54" s="5"/>
+      <c r="EC54" s="5"/>
+      <c r="ED54" s="5"/>
+      <c r="EE54" s="5"/>
+      <c r="EF54" s="5"/>
+      <c r="EG54" s="5"/>
+      <c r="EH54" s="5"/>
+      <c r="EI54" s="5"/>
+      <c r="EJ54" s="5"/>
+      <c r="EK54" s="5"/>
+      <c r="EL54" s="5"/>
+      <c r="EM54" s="5"/>
+      <c r="EN54" s="5"/>
+      <c r="EO54" s="5"/>
+      <c r="EP54" s="5"/>
+      <c r="EQ54" s="5"/>
+      <c r="ER54" s="5"/>
+      <c r="ES54" s="5"/>
+      <c r="ET54" s="5"/>
+      <c r="EU54" s="5"/>
+      <c r="EV54" s="5"/>
+      <c r="EW54" s="5"/>
+      <c r="EX54" s="5"/>
+      <c r="EY54" s="5"/>
+      <c r="EZ54" s="5"/>
+      <c r="FA54" s="5"/>
+      <c r="FB54" s="5"/>
+      <c r="FC54" s="5"/>
+      <c r="FD54" s="5"/>
+      <c r="FE54" s="5"/>
+      <c r="FF54" s="5"/>
+      <c r="FG54" s="5"/>
+      <c r="FH54" s="5"/>
+      <c r="FI54" s="5"/>
+      <c r="FJ54" s="5"/>
+      <c r="FK54" s="5"/>
+      <c r="FL54" s="5"/>
+      <c r="FM54" s="5"/>
+      <c r="FN54" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A54:E54"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
